--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>11.10879580976273</v>
+        <v>11.11504441872455</v>
       </c>
       <c r="C2">
-        <v>11.70026570745961</v>
+        <v>11.76110110583696</v>
       </c>
       <c r="D2">
-        <v>12.5368610627346</v>
+        <v>12.73220445062301</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.944950328915815</v>
+        <v>1.68403785146631</v>
       </c>
       <c r="C3">
-        <v>2.248611641605913</v>
+        <v>1.998784561211309</v>
       </c>
       <c r="D3">
-        <v>2.705491773503428</v>
+        <v>2.641519426766986</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.2702998786168291</v>
+        <v>0.2282301563517662</v>
       </c>
       <c r="C4">
-        <v>0.3152649865129709</v>
+        <v>0.2712604107318175</v>
       </c>
       <c r="D4">
-        <v>0.4193329349194715</v>
+        <v>0.3682431305875852</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>84.73662307729028</v>
+        <v>84.84150485706856</v>
       </c>
       <c r="C5">
-        <v>85.81452279652638</v>
+        <v>86.02318132986059</v>
       </c>
       <c r="D5">
-        <v>86.51330985588457</v>
+        <v>86.80143345383327</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>11.11504441872455</v>
+        <v>6.55238242670781</v>
       </c>
       <c r="C2">
-        <v>11.76110110583696</v>
+        <v>7.342937176676092</v>
       </c>
       <c r="D2">
-        <v>12.73220445062301</v>
+        <v>7.801204277942413</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.68403785146631</v>
+        <v>1.393750092114834</v>
       </c>
       <c r="C3">
-        <v>1.998784561211309</v>
+        <v>1.95948671821054</v>
       </c>
       <c r="D3">
-        <v>2.641519426766986</v>
+        <v>2.3991623266584</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.2282301563517662</v>
+        <v>0.1161909212140451</v>
       </c>
       <c r="C4">
-        <v>0.2712604107318175</v>
+        <v>0.1589914243120696</v>
       </c>
       <c r="D4">
-        <v>0.3682431305875852</v>
+        <v>0.1918314884945954</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>84.84150485706856</v>
+        <v>89.83205248938222</v>
       </c>
       <c r="C5">
-        <v>86.02318132986059</v>
+        <v>90.73073255523886</v>
       </c>
       <c r="D5">
-        <v>86.80143345383327</v>
+        <v>91.33912836949602</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>6.55238242670781</v>
+        <v>6.767793560937871</v>
       </c>
       <c r="C2">
-        <v>7.342937176676092</v>
+        <v>7.51257437759147</v>
       </c>
       <c r="D2">
-        <v>7.801204277942413</v>
+        <v>7.931057780663799</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.393750092114834</v>
+        <v>1.383656700623011</v>
       </c>
       <c r="C3">
-        <v>1.95948671821054</v>
+        <v>1.955583791664621</v>
       </c>
       <c r="D3">
-        <v>2.3991623266584</v>
+        <v>2.393202307189311</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1161909212140451</v>
+        <v>0.1190132055564578</v>
       </c>
       <c r="C4">
-        <v>0.1589914243120696</v>
+        <v>0.1636774942882221</v>
       </c>
       <c r="D4">
-        <v>0.1918314884945954</v>
+        <v>0.1969453475959414</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>89.83205248938222</v>
+        <v>89.74005669753598</v>
       </c>
       <c r="C5">
-        <v>90.73073255523886</v>
+        <v>90.67258625751462</v>
       </c>
       <c r="D5">
-        <v>91.33912836949602</v>
+        <v>91.14213403237282</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>6.767793560937871</v>
+        <v>15.02629232850335</v>
       </c>
       <c r="C2">
-        <v>7.51257437759147</v>
+        <v>15.83682600140548</v>
       </c>
       <c r="D2">
-        <v>7.931057780663799</v>
+        <v>16.58386968409785</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.383656700623011</v>
+        <v>1.253417026148696</v>
       </c>
       <c r="C3">
-        <v>1.955583791664621</v>
+        <v>1.770451996115586</v>
       </c>
       <c r="D3">
-        <v>2.393202307189311</v>
+        <v>2.205118070226383</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.1190132055564578</v>
+        <v>0.254187766061768</v>
       </c>
       <c r="C4">
-        <v>0.1636774942882221</v>
+        <v>0.3498719510603343</v>
       </c>
       <c r="D4">
-        <v>0.1969453475959414</v>
+        <v>0.4369279524342684</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>89.74005669753598</v>
+        <v>81.03109050255415</v>
       </c>
       <c r="C5">
-        <v>90.67258625751462</v>
+        <v>81.9984482992256</v>
       </c>
       <c r="D5">
-        <v>91.14213403237282</v>
+        <v>83.15410987302802</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>15.02629232850335</v>
+        <v>16.14499217120184</v>
       </c>
       <c r="C2">
-        <v>15.83682600140548</v>
+        <v>16.78066987452333</v>
       </c>
       <c r="D2">
-        <v>16.58386968409785</v>
+        <v>17.44344166196272</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.253417026148696</v>
+        <v>1.576472073450375</v>
       </c>
       <c r="C3">
-        <v>1.770451996115586</v>
+        <v>1.87100696038047</v>
       </c>
       <c r="D3">
-        <v>2.205118070226383</v>
+        <v>2.478787954545142</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.254187766061768</v>
+        <v>0.333324194775049</v>
       </c>
       <c r="C4">
-        <v>0.3498719510603343</v>
+        <v>0.3972913410097319</v>
       </c>
       <c r="D4">
-        <v>0.4369279524342684</v>
+        <v>0.5252083615155732</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>81.03109050255415</v>
+        <v>79.97601987637047</v>
       </c>
       <c r="C5">
-        <v>81.9984482992256</v>
+        <v>80.61051467613076</v>
       </c>
       <c r="D5">
-        <v>83.15410987302802</v>
+        <v>81.61114038099559</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>16.14499217120184</v>
+        <v>16.14499125995226</v>
       </c>
       <c r="C2">
-        <v>16.78066987452333</v>
+        <v>16.78066982628543</v>
       </c>
       <c r="D2">
-        <v>17.44344166196272</v>
+        <v>17.44343500719377</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.576472073450375</v>
+        <v>1.576474232974561</v>
       </c>
       <c r="C3">
-        <v>1.87100696038047</v>
+        <v>1.871035172944628</v>
       </c>
       <c r="D3">
-        <v>2.478787954545142</v>
+        <v>2.478822543852049</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.333324194775049</v>
+        <v>0.3333225822219811</v>
       </c>
       <c r="C4">
-        <v>0.3972913410097319</v>
+        <v>0.3972882749252908</v>
       </c>
       <c r="D4">
-        <v>0.5252083615155732</v>
+        <v>0.5251984048125002</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>79.97601987637047</v>
+        <v>79.9760060669568</v>
       </c>
       <c r="C5">
-        <v>80.61051467613076</v>
+        <v>80.61050382964908</v>
       </c>
       <c r="D5">
-        <v>81.61114038099559</v>
+        <v>81.61556634214408</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>16.14499125995226</v>
+        <v>16.20568568574637</v>
       </c>
       <c r="C2">
-        <v>16.78066982628543</v>
+        <v>16.82946031282886</v>
       </c>
       <c r="D2">
-        <v>17.44343500719377</v>
+        <v>17.54084446684263</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.576474232974561</v>
+        <v>1.527678311055065</v>
       </c>
       <c r="C3">
-        <v>1.871035172944628</v>
+        <v>1.807776088457613</v>
       </c>
       <c r="D3">
-        <v>2.478822543852049</v>
+        <v>2.313279794398638</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3333225822219811</v>
+        <v>0.3240385233436823</v>
       </c>
       <c r="C4">
-        <v>0.3972882749252908</v>
+        <v>0.3858151876220725</v>
       </c>
       <c r="D4">
-        <v>0.5251984048125002</v>
+        <v>0.4983013320012676</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>79.9760060669568</v>
+        <v>79.76350511383396</v>
       </c>
       <c r="C5">
-        <v>80.61050382964908</v>
+        <v>80.6550332882285</v>
       </c>
       <c r="D5">
-        <v>81.61556634214408</v>
+        <v>81.64584448885297</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>16.20568568574637</v>
+        <v>15.80040799149265</v>
       </c>
       <c r="C2">
-        <v>16.82946031282886</v>
+        <v>16.6115698056686</v>
       </c>
       <c r="D2">
-        <v>17.54084446684263</v>
+        <v>17.17272003457135</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.527678311055065</v>
+        <v>1.843072965789686</v>
       </c>
       <c r="C3">
-        <v>1.807776088457613</v>
+        <v>2.115409224882649</v>
       </c>
       <c r="D3">
-        <v>2.313279794398638</v>
+        <v>2.887442493414987</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3240385233436823</v>
+        <v>0.3833305201536836</v>
       </c>
       <c r="C4">
-        <v>0.3858151876220725</v>
+        <v>0.4350331197570608</v>
       </c>
       <c r="D4">
-        <v>0.4983013320012676</v>
+        <v>0.5958210777985713</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>79.76350511383396</v>
+        <v>79.77980915609265</v>
       </c>
       <c r="C5">
-        <v>80.6550332882285</v>
+        <v>80.304563097168</v>
       </c>
       <c r="D5">
-        <v>81.64584448885297</v>
+        <v>81.71743534580699</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>15.80040799149265</v>
+        <v>14.02181713207182</v>
       </c>
       <c r="C2">
-        <v>16.6115698056686</v>
+        <v>15.01622286022091</v>
       </c>
       <c r="D2">
-        <v>17.17272003457135</v>
+        <v>16.41869698022617</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.843072965789686</v>
+        <v>1.953885087150319</v>
       </c>
       <c r="C3">
-        <v>2.115409224882649</v>
+        <v>2.331802943878921</v>
       </c>
       <c r="D3">
-        <v>2.887442493414987</v>
+        <v>3.111477058831733</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3833305201536836</v>
+        <v>0.3748338957133264</v>
       </c>
       <c r="C4">
-        <v>0.4350331197570608</v>
+        <v>0.4340093184667319</v>
       </c>
       <c r="D4">
-        <v>0.5958210777985713</v>
+        <v>0.5955044643359204</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>79.77980915609265</v>
+        <v>80.7430097365543</v>
       </c>
       <c r="C5">
-        <v>80.304563097168</v>
+        <v>81.71042264687431</v>
       </c>
       <c r="D5">
-        <v>81.71743534580699</v>
+        <v>82.81703297948127</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>14.02181713207182</v>
+        <v>4.061837677613644</v>
       </c>
       <c r="C2">
-        <v>15.01622286022091</v>
+        <v>4.392153520028366</v>
       </c>
       <c r="D2">
-        <v>16.41869698022617</v>
+        <v>4.64801324001254</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.953885087150319</v>
+        <v>2.05532400939284</v>
       </c>
       <c r="C3">
-        <v>2.331802943878921</v>
+        <v>2.433024137381129</v>
       </c>
       <c r="D3">
-        <v>3.111477058831733</v>
+        <v>3.121046371084056</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3748338957133264</v>
+        <v>0.09802242974602013</v>
       </c>
       <c r="C4">
-        <v>0.4340093184667319</v>
+        <v>0.1316679338128598</v>
       </c>
       <c r="D4">
-        <v>0.5955044643359204</v>
+        <v>0.1923583742652737</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>80.7430097365543</v>
+        <v>92.24356073522981</v>
       </c>
       <c r="C5">
-        <v>81.71042264687431</v>
+        <v>92.99581894811445</v>
       </c>
       <c r="D5">
-        <v>82.81703297948127</v>
+        <v>93.54639234930735</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>4.061837677613644</v>
+        <v>14.92799615593298</v>
       </c>
       <c r="C2">
-        <v>4.392153520028366</v>
+        <v>15.7053632170507</v>
       </c>
       <c r="D2">
-        <v>4.64801324001254</v>
+        <v>16.92137070245447</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>2.05532400939284</v>
+        <v>1.938183439847219</v>
       </c>
       <c r="C3">
-        <v>2.433024137381129</v>
+        <v>2.227446951225407</v>
       </c>
       <c r="D3">
-        <v>3.121046371084056</v>
+        <v>2.879002498605054</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.09802242974602013</v>
+        <v>0.3819400362612048</v>
       </c>
       <c r="C4">
-        <v>0.1316679338128598</v>
+        <v>0.4430808540638551</v>
       </c>
       <c r="D4">
-        <v>0.1923583742652737</v>
+        <v>0.5814197674814459</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>92.24356073522981</v>
+        <v>80.42810128962375</v>
       </c>
       <c r="C5">
-        <v>92.99581894811445</v>
+        <v>81.02747002051122</v>
       </c>
       <c r="D5">
-        <v>93.54639234930735</v>
+        <v>82.54826471256102</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>14.92799615593298</v>
+        <v>14.99720559485872</v>
       </c>
       <c r="C2">
-        <v>15.7053632170507</v>
+        <v>16.09502644449815</v>
       </c>
       <c r="D2">
-        <v>16.92137070245447</v>
+        <v>17.22071142230788</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.938183439847219</v>
+        <v>1.876764908824424</v>
       </c>
       <c r="C3">
-        <v>2.227446951225407</v>
+        <v>2.141623241761814</v>
       </c>
       <c r="D3">
-        <v>2.879002498605054</v>
+        <v>2.808875426967718</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3819400362612048</v>
+        <v>0.3725837149937294</v>
       </c>
       <c r="C4">
-        <v>0.4430808540638551</v>
+        <v>0.4299397558936168</v>
       </c>
       <c r="D4">
-        <v>0.5814197674814459</v>
+        <v>0.5684317205310392</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>80.42810128962375</v>
+        <v>80.20690101108026</v>
       </c>
       <c r="C5">
-        <v>81.02747002051122</v>
+        <v>80.95500886790248</v>
       </c>
       <c r="D5">
-        <v>82.54826471256102</v>
+        <v>82.40429830765724</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>14.99720559485872</v>
+        <v>16.4840760836171</v>
       </c>
       <c r="C2">
-        <v>16.09502644449815</v>
+        <v>17.25107007721407</v>
       </c>
       <c r="D2">
-        <v>17.22071142230788</v>
+        <v>17.72806439721533</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.876764908824424</v>
+        <v>1.779206903925952</v>
       </c>
       <c r="C3">
-        <v>2.141623241761814</v>
+        <v>2.023433792129094</v>
       </c>
       <c r="D3">
-        <v>2.808875426967718</v>
+        <v>2.524320065152704</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3725837149937294</v>
+        <v>0.3853066458130638</v>
       </c>
       <c r="C4">
-        <v>0.4299397558936168</v>
+        <v>0.4459280935193742</v>
       </c>
       <c r="D4">
-        <v>0.5684317205310392</v>
+        <v>0.5507719986545112</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>80.20690101108026</v>
+        <v>79.2168860461119</v>
       </c>
       <c r="C5">
-        <v>80.95500886790248</v>
+        <v>79.91579266307147</v>
       </c>
       <c r="D5">
-        <v>82.40429830765724</v>
+        <v>81.04604704170687</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>16.4840760836171</v>
+        <v>16.64366028148607</v>
       </c>
       <c r="C2">
-        <v>17.25107007721407</v>
+        <v>17.36128077017902</v>
       </c>
       <c r="D2">
-        <v>17.72806439721533</v>
+        <v>17.88084631043447</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.779206903925952</v>
+        <v>1.776753170719777</v>
       </c>
       <c r="C3">
-        <v>2.023433792129094</v>
+        <v>2.020742317102819</v>
       </c>
       <c r="D3">
-        <v>2.524320065152704</v>
+        <v>2.519333872766607</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3853066458130638</v>
+        <v>0.3878329371642422</v>
       </c>
       <c r="C4">
-        <v>0.4459280935193742</v>
+        <v>0.44855713502233</v>
       </c>
       <c r="D4">
-        <v>0.5507719986545112</v>
+        <v>0.5557581910406075</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>79.2168860461119</v>
+        <v>79.11412320956629</v>
       </c>
       <c r="C5">
-        <v>79.91579266307147</v>
+        <v>79.87706986579832</v>
       </c>
       <c r="D5">
-        <v>81.04604704170687</v>
+        <v>80.8823178391079</v>
       </c>
     </row>
   </sheetData>

--- a/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
+++ b/1-Data-Codes/2-Final_Data/table_I_1999.xlsx
@@ -389,7 +389,7 @@
         <v>16.64366028148607</v>
       </c>
       <c r="C2">
-        <v>17.36128077017902</v>
+        <v>17.36128077017901</v>
       </c>
       <c r="D2">
         <v>17.88084631043447</v>
